--- a/data/trans_bre/P25_9-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,65</t>
+          <t>12,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,49</t>
+          <t>14,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>12,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,74</t>
+          <t>18,24</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>201,74%</t>
+          <t>13,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>265,37%</t>
+          <t>13,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>230,46%</t>
+          <t>203,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>188,58%</t>
+          <t>273,75%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>244,92%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>280,58%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>188,53%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>147,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 16,7</t>
+          <t>8,63; 16,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 18,02</t>
+          <t>10,99; 18,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 14,91</t>
+          <t>9,19; 15,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 17,69</t>
+          <t>14,18; 22,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,78; 351,5</t>
+          <t>10,05; 17,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>132,38; 441,48</t>
+          <t>9,74; 17,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>110,9; 400,14</t>
+          <t>87,7; 346,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>114,18; 292,55</t>
+          <t>144,34; 463,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>105,8; 400,91</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>172,04; 454,97</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>110,86; 303,16</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>88,29; 229,07</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,49</t>
+          <t>13,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>12,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>15,64</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>15,04</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>343,03%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>226,99%</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>246,6%</t>
+          <t>335,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>234,15%</t>
+          <t>224,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>252,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>211,04%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>234,33%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>191,98%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,97; 17,59</t>
+          <t>9,93; 18,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,96; 14,74</t>
+          <t>7,4; 14,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,23; 17,15</t>
+          <t>8,87; 17,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 21,94</t>
+          <t>11,58; 20,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>184,11; 624,81</t>
+          <t>8,59; 22,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>97,45; 408,65</t>
+          <t>8,46; 22,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>135,78; 416,18</t>
+          <t>182,35; 630,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>89,21; 489,4</t>
+          <t>98,81; 419,95</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>133,13; 428,75</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>120,67; 375,3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>89,78; 520,79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68,91; 367,68</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>14,58</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,4</t>
+          <t>14,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>16,88</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>228,16%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>202,31%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>388,45%</t>
+          <t>219,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>191,57%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>351,97%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>210,01%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 24,6</t>
+          <t>4,58; 21,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 21,9</t>
+          <t>7,05; 22,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 21,79</t>
+          <t>8,34; 22,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>7,5; 26,63</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>37,6; 775,63</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,07; 510,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>102,45; 1127,13</t>
+          <t>25,35; 625,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>55,28; 460,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>87,91; 1211,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>52,1; 585,41</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,22</t>
+          <t>13,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>13,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,54</t>
+          <t>12,87</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17,06</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>14,04</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>247,0%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>242,67%</t>
+          <t>13,87</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>251,47%</t>
+          <t>245,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>243,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>258,72%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>241,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>198,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>156,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 15,83</t>
+          <t>10,86; 15,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,61; 15,51</t>
+          <t>10,46; 15,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,24; 15,07</t>
+          <t>10,32; 15,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,45</t>
+          <t>14,07; 19,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>153,37; 362,46</t>
+          <t>11,05; 17,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>150,92; 359,01</t>
+          <t>10,51; 16,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>166,52; 368,4</t>
+          <t>152,63; 360,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>127,01; 286,9</t>
+          <t>151,79; 346,49</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>162,06; 360,22</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>166,2; 329,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>127,79; 296,71</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>101,79; 229,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_9-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_9-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,64</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,44</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,24</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,73</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13,43</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>203,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>273,75%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>244,92%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>280,58%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>188,53%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>147,08%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>13.16923912405047</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.51671899322306</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.27144700332637</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>18.03768614370844</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>13.73469048285143</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>13.61121241001302</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>2.07602684473362</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>2.687321398534696</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>2.394122119424953</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.782035893844459</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.885338868240163</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.498309450031711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>8,63; 16,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>10,99; 18,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>9,19; 15,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>14,18; 22,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>10,05; 17,55</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>9,74; 17,19</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>87,7; 346,84</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>144,34; 463,32</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>105,8; 400,91</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>172,04; 454,97</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>110,86; 303,16</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>88,29; 229,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>8.829150643375231</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>10.76723547496236</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>8.84614062827109</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>14.01510138780414</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>10.04632110125842</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>9.816405810380836</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.854946607285177</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>1.384123678940913</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.9920289455767031</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>1.696373445379196</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>1.108619099494926</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.8890774973480133</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.07260054223728</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>18.01257060172183</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.50750114681657</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.33570667408105</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>17.55443415348581</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>17.37135073438912</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>3.495769770134398</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.636162248558755</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.93134610356999</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>4.577935934492918</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>3.031626093263947</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>2.302654250738728</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>13,8</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12,79</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>15,64</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>15,04</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>15,29</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>335,93%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>224,91%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>252,26%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>211,04%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>234,33%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>191,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>9,93; 18,05</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,4; 14,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>8,87; 17,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>11,58; 20,87</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>8,59; 22,24</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>8,46; 22,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>182,35; 630,62</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>98,81; 419,95</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>133,13; 428,75</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>120,67; 375,3</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>89,78; 520,79</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>68,91; 367,68</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>13.19648926923025</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.23444191091891</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>12.87412320689797</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>16.05976529968433</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>15.04354113566272</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>15.17356460274221</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>3.226832713549133</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.390850714203227</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.539601261100674</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>2.273201286878889</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>2.343260382094939</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.873305010299916</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>13,34</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14,93</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,88</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>219,94%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>191,57%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>351,97%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>210,01%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>9.526776613864554</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.846676254386255</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>8.933192147876024</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>11.89192329960708</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>8.588584312452529</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>8.351429952769225</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>1.760065535196596</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>1.119673639692557</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>1.361594478020294</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>1.337834986707129</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.8978459019592752</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.6658173577975762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 21,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 22,69</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>8,34; 22,39</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>7,5; 26,63</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>25,35; 625,96</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>55,28; 460,66</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>87,91; 1211,26</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>52,1; 585,41</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.09962710063625</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.90979052843453</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.14681693332987</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.13158645306272</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>22.24230734056772</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>22.0296438600102</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.175699486555986</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.369132545538002</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>4.317750084077791</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.025726487455403</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>5.207914302280096</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>3.635444675384328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>13,36</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>13,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>12,87</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>17,06</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14,04</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>13,87</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>245,91%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>243,31%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>258,72%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>241,86%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>198,37%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>156,7%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>14.22100968601548</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>14.62470989858038</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>14.84534033978274</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>16.37465209689019</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>2.431534751478093</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.005642309082488</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>3.798933202939023</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.996110039200701</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>10,86; 15,99</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>10,46; 15,49</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>10,32; 15,26</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>14,07; 19,9</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>11,05; 17,41</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10,51; 16,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>152,63; 360,14</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>151,79; 346,49</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>162,06; 360,22</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>166,2; 329,97</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>127,79; 296,71</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>101,79; 229,82</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>5.318294682246724</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.210329700460322</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>8.704206367564677</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>6.664806313820952</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.3280309106084052</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.6107145343083347</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>1.128531821067311</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.4548178414403141</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.54841826652294</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.48902409661048</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>22.57291256385705</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>25.86692322807461</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>7.283657937132019</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>4.72312634577351</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>13.40238878179611</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>5.642723961029427</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>13.33139784893122</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.27572311133065</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>12.80719459748641</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>17.06593020484976</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>14.03886014133913</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>13.9771080504812</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>2.476316398361776</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.480313804444029</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>2.585427401100095</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>2.463203669391247</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.983703944360307</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.580006976812695</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>10.80011733076777</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>10.56664435667401</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>10.27093940288438</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>14.05189147696433</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>11.04710257126346</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>10.6540281753479</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>1.522182333953311</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>1.544821767601764</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>1.593560391304339</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>1.700912315877475</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>1.277931113755337</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>1.032105907995638</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>16.12118100377583</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.49821885521514</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.133348636861</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.88852432995996</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>17.40579787853519</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>16.93301185815437</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.602861668120745</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>3.561775339438018</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.643377833401349</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.385767035039063</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.967087923225606</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>2.284409339997352</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
